--- a/biology/Botanique/Phlomis_tuberosa/Phlomis_tuberosa.xlsx
+++ b/biology/Botanique/Phlomis_tuberosa/Phlomis_tuberosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phlomis tuberosa est une espèce de plantes de la famille des Lamiaceae que l'on trouve en Europe centrale et en Europe de l'Est, jusqu'en Russie européenne et en Sibérie orientale. Elle fleurit de mai à juillet.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phlomoides tuberosa (L.) Moench</t>
         </is>
@@ -542,6 +556,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,7 +583,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Phlomis tuberosa croît dans les plaines sèches et les steppes, jusqu'à 2 300 mètres d'altitude.
 </t>
